--- a/DA/cap05-Definicion_Topologia_Usuarios/Definición y tipologia de usuarios_150406.xlsx
+++ b/DA/cap05-Definicion_Topologia_Usuarios/Definición y tipologia de usuarios_150406.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\cap05-Definicion_Topologia_Usuarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap05-Definicion_Topologia_Usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="713"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -67,7 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -91,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -115,7 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -139,7 +139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -163,7 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -187,7 +187,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -211,7 +211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -235,7 +235,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -259,7 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
         </r>
@@ -841,7 +841,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1725,7 @@
   <dimension ref="B3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2200,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2517,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,20 +2653,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="18.85546875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -2749,13 +2750,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -2779,15 +2780,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
